--- a/dataanalysis/data/predictions/1000/08201023_1026.xlsx
+++ b/dataanalysis/data/predictions/1000/08201023_1026.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="187">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-08-20</t>
   </si>
   <si>
@@ -572,12 +575,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -935,13 +932,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH96"/>
+  <dimension ref="A1:AI96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1044,19 +1041,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300004</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>-2.01</v>
@@ -1074,7 +1074,7 @@
         <v>67717.24000000001</v>
       </c>
       <c r="J2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -1115,8 +1115,23 @@
       <c r="W2">
         <v>-1.91</v>
       </c>
+      <c r="X2">
+        <v>-0.27</v>
+      </c>
+      <c r="Y2">
+        <v>12.19</v>
+      </c>
+      <c r="Z2">
+        <v>8.74</v>
+      </c>
       <c r="AC2" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>1</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -1124,22 +1139,25 @@
       <c r="AG2">
         <v>16.92094421386719</v>
       </c>
-      <c r="AH2" t="s">
-        <v>186</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300033</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>-1.33</v>
@@ -1157,7 +1175,7 @@
         <v>175519.6</v>
       </c>
       <c r="J3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -1198,8 +1216,23 @@
       <c r="W3">
         <v>-0.12</v>
       </c>
+      <c r="X3">
+        <v>-1.54</v>
+      </c>
+      <c r="Y3">
+        <v>393.18</v>
+      </c>
+      <c r="Z3">
+        <v>2.36</v>
+      </c>
       <c r="AC3" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1207,22 +1240,25 @@
       <c r="AG3">
         <v>-1.768864631652832</v>
       </c>
-      <c r="AH3" t="s">
-        <v>186</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300049</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>0.43</v>
@@ -1240,7 +1276,7 @@
         <v>201681.93</v>
       </c>
       <c r="J4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K4">
         <v>10</v>
@@ -1281,8 +1317,23 @@
       <c r="W4">
         <v>-1.09</v>
       </c>
+      <c r="X4">
+        <v>-4.63</v>
+      </c>
+      <c r="Y4">
+        <v>73.88</v>
+      </c>
+      <c r="Z4">
+        <v>1.85</v>
+      </c>
       <c r="AC4" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1290,22 +1341,25 @@
       <c r="AG4">
         <v>4.295345783233643</v>
       </c>
-      <c r="AH4" t="s">
-        <v>186</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300066</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>7.2</v>
@@ -1323,7 +1377,7 @@
         <v>115165.53</v>
       </c>
       <c r="J5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K5">
         <v>10</v>
@@ -1364,8 +1418,23 @@
       <c r="W5">
         <v>1.26</v>
       </c>
+      <c r="X5">
+        <v>-6.52</v>
+      </c>
+      <c r="Y5">
+        <v>7.52</v>
+      </c>
+      <c r="Z5">
+        <v>-0.92</v>
+      </c>
       <c r="AC5" t="s">
-        <v>185</v>
+        <v>186</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1373,22 +1442,25 @@
       <c r="AG5">
         <v>3.958608388900757</v>
       </c>
-      <c r="AH5" t="s">
-        <v>186</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300145</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>0.58</v>
@@ -1406,7 +1478,7 @@
         <v>48035.4</v>
       </c>
       <c r="J6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K6">
         <v>6</v>
@@ -1447,8 +1519,23 @@
       <c r="W6">
         <v>0.25</v>
       </c>
+      <c r="X6">
+        <v>-1.74</v>
+      </c>
+      <c r="Y6">
+        <v>5.23</v>
+      </c>
+      <c r="Z6">
+        <v>0.58</v>
+      </c>
       <c r="AC6" t="s">
-        <v>185</v>
+        <v>186</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1456,22 +1543,25 @@
       <c r="AG6">
         <v>6.764750003814697</v>
       </c>
-      <c r="AH6" t="s">
-        <v>186</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300184</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>-0.87</v>
@@ -1489,7 +1579,7 @@
         <v>64697.7</v>
       </c>
       <c r="J7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -1530,8 +1620,23 @@
       <c r="W7">
         <v>-0.28</v>
       </c>
+      <c r="X7">
+        <v>2.48</v>
+      </c>
+      <c r="Y7">
+        <v>12.48</v>
+      </c>
+      <c r="Z7">
+        <v>8.9</v>
+      </c>
       <c r="AC7" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>1</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1539,22 +1644,25 @@
       <c r="AG7">
         <v>-7.284744262695312</v>
       </c>
-      <c r="AH7" t="s">
-        <v>186</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300199</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>0.1</v>
@@ -1572,7 +1680,7 @@
         <v>241884.65</v>
       </c>
       <c r="J8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K8">
         <v>17</v>
@@ -1613,8 +1721,23 @@
       <c r="W8">
         <v>-0.48</v>
       </c>
+      <c r="X8">
+        <v>2.57</v>
+      </c>
+      <c r="Y8">
+        <v>30.7</v>
+      </c>
+      <c r="Z8">
+        <v>4.81</v>
+      </c>
       <c r="AC8" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1622,22 +1745,25 @@
       <c r="AG8">
         <v>1.174530029296875</v>
       </c>
-      <c r="AH8" t="s">
-        <v>186</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300213</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>2.1</v>
@@ -1655,7 +1781,7 @@
         <v>38996.79</v>
       </c>
       <c r="J9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K9">
         <v>5</v>
@@ -1696,8 +1822,23 @@
       <c r="W9">
         <v>0.53</v>
       </c>
+      <c r="X9">
+        <v>-3.45</v>
+      </c>
+      <c r="Y9">
+        <v>11.18</v>
+      </c>
+      <c r="Z9">
+        <v>0.18</v>
+      </c>
       <c r="AC9" t="s">
-        <v>185</v>
+        <v>186</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1705,22 +1846,25 @@
       <c r="AG9">
         <v>12.95733833312988</v>
       </c>
-      <c r="AH9" t="s">
-        <v>186</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300252</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>-1.47</v>
@@ -1738,7 +1882,7 @@
         <v>43642.58</v>
       </c>
       <c r="J10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1779,8 +1923,23 @@
       <c r="W10">
         <v>-0.52</v>
       </c>
+      <c r="X10">
+        <v>-1.28</v>
+      </c>
+      <c r="Y10">
+        <v>14.27</v>
+      </c>
+      <c r="Z10">
+        <v>1.71</v>
+      </c>
       <c r="AC10" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1788,22 +1947,25 @@
       <c r="AG10">
         <v>4.814629077911377</v>
       </c>
-      <c r="AH10" t="s">
-        <v>186</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300290</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>0.3</v>
@@ -1821,7 +1983,7 @@
         <v>38515.16</v>
       </c>
       <c r="J11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1862,8 +2024,23 @@
       <c r="W11">
         <v>-0.06</v>
       </c>
+      <c r="X11">
+        <v>4.03</v>
+      </c>
+      <c r="Y11">
+        <v>25.8</v>
+      </c>
+      <c r="Z11">
+        <v>11.35</v>
+      </c>
       <c r="AC11" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>1</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1871,22 +2048,25 @@
       <c r="AG11">
         <v>4.133143424987793</v>
       </c>
-      <c r="AH11" t="s">
-        <v>186</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300300</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>-3.93</v>
@@ -1904,7 +2084,7 @@
         <v>21288.99</v>
       </c>
       <c r="J12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1945,8 +2125,23 @@
       <c r="W12">
         <v>-0.99</v>
       </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>6.13</v>
+      </c>
+      <c r="Z12">
+        <v>4.61</v>
+      </c>
       <c r="AC12" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -1954,22 +2149,25 @@
       <c r="AG12">
         <v>2.465829133987427</v>
       </c>
-      <c r="AH12" t="s">
-        <v>186</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300324</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>-1.2</v>
@@ -1987,7 +2185,7 @@
         <v>58407.85</v>
       </c>
       <c r="J13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -2028,8 +2226,23 @@
       <c r="W13">
         <v>-0.46</v>
       </c>
+      <c r="X13">
+        <v>2.44</v>
+      </c>
+      <c r="Y13">
+        <v>6.03</v>
+      </c>
+      <c r="Z13">
+        <v>4.33</v>
+      </c>
       <c r="AC13" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -2037,22 +2250,25 @@
       <c r="AG13">
         <v>-1.737908720970154</v>
       </c>
-      <c r="AH13" t="s">
-        <v>186</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300328</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>7.18</v>
@@ -2070,7 +2286,7 @@
         <v>244948.25</v>
       </c>
       <c r="J14" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -2111,8 +2327,23 @@
       <c r="W14">
         <v>-2.7</v>
       </c>
+      <c r="X14">
+        <v>-5.64</v>
+      </c>
+      <c r="Y14">
+        <v>18.29</v>
+      </c>
+      <c r="Z14">
+        <v>0.49</v>
+      </c>
       <c r="AC14" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -2120,22 +2351,25 @@
       <c r="AG14">
         <v>9.695949554443359</v>
       </c>
-      <c r="AH14" t="s">
-        <v>186</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300368</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>3.38</v>
@@ -2153,7 +2387,7 @@
         <v>98943.94</v>
       </c>
       <c r="J15" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K15">
         <v>9</v>
@@ -2194,8 +2428,23 @@
       <c r="W15">
         <v>0.6899999999999999</v>
       </c>
+      <c r="X15">
+        <v>-6.01</v>
+      </c>
+      <c r="Y15">
+        <v>17.45</v>
+      </c>
+      <c r="Z15">
+        <v>3.68</v>
+      </c>
       <c r="AC15" t="s">
-        <v>185</v>
+        <v>186</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2203,22 +2452,25 @@
       <c r="AG15">
         <v>2.535304307937622</v>
       </c>
-      <c r="AH15" t="s">
-        <v>186</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300400</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>-5.11</v>
@@ -2236,7 +2488,7 @@
         <v>35336.26</v>
       </c>
       <c r="J16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K16">
         <v>8</v>
@@ -2277,8 +2529,23 @@
       <c r="W16">
         <v>-0.45</v>
       </c>
+      <c r="X16">
+        <v>-2.86</v>
+      </c>
+      <c r="Y16">
+        <v>25.63</v>
+      </c>
+      <c r="Z16">
+        <v>-0.66</v>
+      </c>
       <c r="AC16" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2286,22 +2553,25 @@
       <c r="AG16">
         <v>3.670163154602051</v>
       </c>
-      <c r="AH16" t="s">
-        <v>186</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300404</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>-6.84</v>
@@ -2319,7 +2589,7 @@
         <v>58262.52</v>
       </c>
       <c r="J17" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -2360,8 +2630,23 @@
       <c r="W17">
         <v>0.42</v>
       </c>
+      <c r="X17">
+        <v>-3.07</v>
+      </c>
+      <c r="Y17">
+        <v>12.57</v>
+      </c>
+      <c r="Z17">
+        <v>2.61</v>
+      </c>
       <c r="AC17" t="s">
-        <v>185</v>
+        <v>186</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2369,22 +2654,25 @@
       <c r="AG17">
         <v>-2.676438570022583</v>
       </c>
-      <c r="AH17" t="s">
-        <v>186</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300409</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>-0.23</v>
@@ -2402,7 +2690,7 @@
         <v>54068.13</v>
       </c>
       <c r="J18" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -2443,8 +2731,23 @@
       <c r="W18">
         <v>0.16</v>
       </c>
+      <c r="X18">
+        <v>-5.06</v>
+      </c>
+      <c r="Y18">
+        <v>22</v>
+      </c>
+      <c r="Z18">
+        <v>2.66</v>
+      </c>
       <c r="AC18" t="s">
-        <v>185</v>
+        <v>186</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2452,22 +2755,25 @@
       <c r="AG18">
         <v>6.395660400390625</v>
       </c>
-      <c r="AH18" t="s">
-        <v>186</v>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300455</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>3.36</v>
@@ -2485,7 +2791,7 @@
         <v>43007.88</v>
       </c>
       <c r="J19" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K19">
         <v>12</v>
@@ -2526,8 +2832,23 @@
       <c r="W19">
         <v>0.1</v>
       </c>
+      <c r="X19">
+        <v>-3.63</v>
+      </c>
+      <c r="Y19">
+        <v>18.8</v>
+      </c>
+      <c r="Z19">
+        <v>-1.36</v>
+      </c>
       <c r="AC19" t="s">
-        <v>185</v>
+        <v>186</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2535,22 +2856,25 @@
       <c r="AG19">
         <v>69.53414916992188</v>
       </c>
-      <c r="AH19" t="s">
-        <v>186</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>300499</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>-2.85</v>
@@ -2568,7 +2892,7 @@
         <v>110368.15</v>
       </c>
       <c r="J20" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K20">
         <v>6</v>
@@ -2609,8 +2933,23 @@
       <c r="W20">
         <v>-0.15</v>
       </c>
+      <c r="X20">
+        <v>-0.15</v>
+      </c>
+      <c r="Y20">
+        <v>33</v>
+      </c>
+      <c r="Z20">
+        <v>2.93</v>
+      </c>
       <c r="AC20" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2618,22 +2957,25 @@
       <c r="AG20">
         <v>4.521005630493164</v>
       </c>
-      <c r="AH20" t="s">
-        <v>186</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>300539</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>-6.87</v>
@@ -2651,7 +2993,7 @@
         <v>37917.13</v>
       </c>
       <c r="J21" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K21">
         <v>10</v>
@@ -2692,8 +3034,23 @@
       <c r="W21">
         <v>-0.29</v>
       </c>
+      <c r="X21">
+        <v>-3.79</v>
+      </c>
+      <c r="Y21">
+        <v>33.92</v>
+      </c>
+      <c r="Z21">
+        <v>2.6</v>
+      </c>
       <c r="AC21" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2701,22 +3058,25 @@
       <c r="AG21">
         <v>-5.535861968994141</v>
       </c>
-      <c r="AH21" t="s">
-        <v>186</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>300547</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>-3.86</v>
@@ -2734,7 +3094,7 @@
         <v>104804.01</v>
       </c>
       <c r="J22" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K22">
         <v>4</v>
@@ -2775,8 +3135,23 @@
       <c r="W22">
         <v>-0.15</v>
       </c>
+      <c r="X22">
+        <v>-4.93</v>
+      </c>
+      <c r="Y22">
+        <v>52.5</v>
+      </c>
+      <c r="Z22">
+        <v>1.25</v>
+      </c>
       <c r="AC22" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2784,22 +3159,25 @@
       <c r="AG22">
         <v>1.614186406135559</v>
       </c>
-      <c r="AH22" t="s">
-        <v>186</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>300602</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>-4.74</v>
@@ -2817,7 +3195,7 @@
         <v>79903.21000000001</v>
       </c>
       <c r="J23" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -2858,8 +3236,23 @@
       <c r="W23">
         <v>-0.47</v>
       </c>
+      <c r="X23">
+        <v>-2.64</v>
+      </c>
+      <c r="Y23">
+        <v>36.27</v>
+      </c>
+      <c r="Z23">
+        <v>8.039999999999999</v>
+      </c>
       <c r="AC23" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>1</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -2867,22 +3260,25 @@
       <c r="AG23">
         <v>2.396625280380249</v>
       </c>
-      <c r="AH23" t="s">
-        <v>186</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>300609</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>-6.36</v>
@@ -2900,7 +3296,7 @@
         <v>45628.92</v>
       </c>
       <c r="J24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K24">
         <v>16</v>
@@ -2941,8 +3337,23 @@
       <c r="W24">
         <v>-0.78</v>
       </c>
+      <c r="X24">
+        <v>-2.87</v>
+      </c>
+      <c r="Y24">
+        <v>55.07</v>
+      </c>
+      <c r="Z24">
+        <v>-0.27</v>
+      </c>
       <c r="AC24" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
       </c>
       <c r="AF24">
         <v>1</v>
@@ -2950,22 +3361,25 @@
       <c r="AG24">
         <v>5.701021671295166</v>
       </c>
-      <c r="AH24" t="s">
-        <v>186</v>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>300620</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>-6.33</v>
@@ -2983,7 +3397,7 @@
         <v>176065.13</v>
       </c>
       <c r="J25" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K25">
         <v>7</v>
@@ -3024,8 +3438,23 @@
       <c r="W25">
         <v>-1.05</v>
       </c>
+      <c r="X25">
+        <v>-6.13</v>
+      </c>
+      <c r="Y25">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="Z25">
+        <v>1.18</v>
+      </c>
       <c r="AC25" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -3033,22 +3462,25 @@
       <c r="AG25">
         <v>1.171964049339294</v>
       </c>
-      <c r="AH25" t="s">
-        <v>186</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>300631</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>-2.28</v>
@@ -3066,7 +3498,7 @@
         <v>59502.89</v>
       </c>
       <c r="J26" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -3107,8 +3539,23 @@
       <c r="W26">
         <v>-1.4</v>
       </c>
+      <c r="X26">
+        <v>-2.82</v>
+      </c>
+      <c r="Y26">
+        <v>36.3</v>
+      </c>
+      <c r="Z26">
+        <v>0.75</v>
+      </c>
       <c r="AC26" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -3116,22 +3563,25 @@
       <c r="AG26">
         <v>-4.3970627784729</v>
       </c>
-      <c r="AH26" t="s">
-        <v>186</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>300637</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>-2.29</v>
@@ -3149,7 +3599,7 @@
         <v>16839.2</v>
       </c>
       <c r="J27" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K27">
         <v>6</v>
@@ -3190,8 +3640,23 @@
       <c r="W27">
         <v>-0.71</v>
       </c>
+      <c r="X27">
+        <v>2.75</v>
+      </c>
+      <c r="Y27">
+        <v>16.5</v>
+      </c>
+      <c r="Z27">
+        <v>7.42</v>
+      </c>
       <c r="AC27" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>1</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -3199,22 +3664,25 @@
       <c r="AG27">
         <v>1.904271602630615</v>
       </c>
-      <c r="AH27" t="s">
-        <v>186</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>300642</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>4.59</v>
@@ -3232,7 +3700,7 @@
         <v>56839.21</v>
       </c>
       <c r="J28" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -3273,8 +3741,23 @@
       <c r="W28">
         <v>0.06</v>
       </c>
+      <c r="X28">
+        <v>-2.78</v>
+      </c>
+      <c r="Y28">
+        <v>25</v>
+      </c>
+      <c r="Z28">
+        <v>3.52</v>
+      </c>
       <c r="AC28" t="s">
-        <v>185</v>
+        <v>186</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3282,22 +3765,25 @@
       <c r="AG28">
         <v>5.932754993438721</v>
       </c>
-      <c r="AH28" t="s">
-        <v>186</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>300684</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>2.07</v>
@@ -3315,7 +3801,7 @@
         <v>67572.56</v>
       </c>
       <c r="J29" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K29">
         <v>16</v>
@@ -3356,8 +3842,23 @@
       <c r="W29">
         <v>0.36</v>
       </c>
+      <c r="X29">
+        <v>-7.31</v>
+      </c>
+      <c r="Y29">
+        <v>38.54</v>
+      </c>
+      <c r="Z29">
+        <v>4.44</v>
+      </c>
       <c r="AC29" t="s">
-        <v>185</v>
+        <v>186</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3365,22 +3866,25 @@
       <c r="AG29">
         <v>1.527754545211792</v>
       </c>
-      <c r="AH29" t="s">
-        <v>186</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>300690</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>-1.93</v>
@@ -3398,7 +3902,7 @@
         <v>41142.12</v>
       </c>
       <c r="J30" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K30">
         <v>8</v>
@@ -3439,8 +3943,23 @@
       <c r="W30">
         <v>-0.6899999999999999</v>
       </c>
+      <c r="X30">
+        <v>-4.48</v>
+      </c>
+      <c r="Y30">
+        <v>38.76</v>
+      </c>
+      <c r="Z30">
+        <v>0.16</v>
+      </c>
       <c r="AC30" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3448,22 +3967,25 @@
       <c r="AG30">
         <v>3.453174352645874</v>
       </c>
-      <c r="AH30" t="s">
-        <v>186</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>300703</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>1.19</v>
@@ -3481,7 +4003,7 @@
         <v>28607.88</v>
       </c>
       <c r="J31" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K31">
         <v>9</v>
@@ -3522,8 +4044,23 @@
       <c r="W31">
         <v>0.42</v>
       </c>
+      <c r="X31">
+        <v>-5.67</v>
+      </c>
+      <c r="Y31">
+        <v>38.53</v>
+      </c>
+      <c r="Z31">
+        <v>8.02</v>
+      </c>
       <c r="AC31" t="s">
-        <v>185</v>
+        <v>186</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>1</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3531,22 +4068,25 @@
       <c r="AG31">
         <v>2.83017897605896</v>
       </c>
-      <c r="AH31" t="s">
-        <v>186</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>300706</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>1.23</v>
@@ -3564,7 +4104,7 @@
         <v>47230.28</v>
       </c>
       <c r="J32" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K32">
         <v>19</v>
@@ -3605,8 +4145,23 @@
       <c r="W32">
         <v>-0.43</v>
       </c>
+      <c r="X32">
+        <v>-7.94</v>
+      </c>
+      <c r="Y32">
+        <v>49.01</v>
+      </c>
+      <c r="Z32">
+        <v>-0.6899999999999999</v>
+      </c>
       <c r="AC32" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -3614,22 +4169,25 @@
       <c r="AG32">
         <v>-3.538135051727295</v>
       </c>
-      <c r="AH32" t="s">
-        <v>186</v>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>300709</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>1.37</v>
@@ -3647,7 +4205,7 @@
         <v>29192.41</v>
       </c>
       <c r="J33" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -3688,8 +4246,23 @@
       <c r="W33">
         <v>0.13</v>
       </c>
+      <c r="X33">
+        <v>-4.23</v>
+      </c>
+      <c r="Y33">
+        <v>52.78</v>
+      </c>
+      <c r="Z33">
+        <v>3.19</v>
+      </c>
       <c r="AC33" t="s">
-        <v>185</v>
+        <v>186</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -3697,22 +4270,25 @@
       <c r="AG33">
         <v>3.923662900924683</v>
       </c>
-      <c r="AH33" t="s">
-        <v>186</v>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>300724</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>1.91</v>
@@ -3730,7 +4306,7 @@
         <v>127404.92</v>
       </c>
       <c r="J34" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K34">
         <v>2</v>
@@ -3771,8 +4347,23 @@
       <c r="W34">
         <v>0</v>
       </c>
+      <c r="X34">
+        <v>-1.43</v>
+      </c>
+      <c r="Y34">
+        <v>78.97</v>
+      </c>
+      <c r="Z34">
+        <v>4.04</v>
+      </c>
       <c r="AC34" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -3780,22 +4371,25 @@
       <c r="AG34">
         <v>1.66868793964386</v>
       </c>
-      <c r="AH34" t="s">
-        <v>186</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>300727</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>-3.83</v>
@@ -3813,7 +4407,7 @@
         <v>33570.61</v>
       </c>
       <c r="J35" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K35">
         <v>4</v>
@@ -3854,8 +4448,23 @@
       <c r="W35">
         <v>0.06</v>
       </c>
+      <c r="X35">
+        <v>-3.91</v>
+      </c>
+      <c r="Y35">
+        <v>40.38</v>
+      </c>
+      <c r="Z35">
+        <v>1.71</v>
+      </c>
       <c r="AC35" t="s">
-        <v>185</v>
+        <v>186</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -3863,22 +4472,25 @@
       <c r="AG35">
         <v>3.971871137619019</v>
       </c>
-      <c r="AH35" t="s">
-        <v>186</v>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>300730</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>-6.06</v>
@@ -3896,7 +4508,7 @@
         <v>59247.28</v>
       </c>
       <c r="J36" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -3937,8 +4549,23 @@
       <c r="W36">
         <v>-2.21</v>
       </c>
+      <c r="X36">
+        <v>13.17</v>
+      </c>
+      <c r="Y36">
+        <v>22.96</v>
+      </c>
+      <c r="Z36">
+        <v>21.48</v>
+      </c>
       <c r="AC36" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>1</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -3946,22 +4573,25 @@
       <c r="AG36">
         <v>2.593962430953979</v>
       </c>
-      <c r="AH36" t="s">
-        <v>186</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>300731</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>-5.3</v>
@@ -3979,7 +4609,7 @@
         <v>43076.43</v>
       </c>
       <c r="J37" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K37">
         <v>14</v>
@@ -4020,8 +4650,23 @@
       <c r="W37">
         <v>0.06</v>
       </c>
+      <c r="X37">
+        <v>-7.6</v>
+      </c>
+      <c r="Y37">
+        <v>52.9</v>
+      </c>
+      <c r="Z37">
+        <v>-0.3</v>
+      </c>
       <c r="AC37" t="s">
-        <v>185</v>
+        <v>186</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -4029,22 +4674,25 @@
       <c r="AG37">
         <v>1.709606766700745</v>
       </c>
-      <c r="AH37" t="s">
-        <v>186</v>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>300752</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>7.51</v>
@@ -4062,7 +4710,7 @@
         <v>39721.87</v>
       </c>
       <c r="J38" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K38">
         <v>2</v>
@@ -4103,8 +4751,23 @@
       <c r="W38">
         <v>0.98</v>
       </c>
+      <c r="X38">
+        <v>-1.73</v>
+      </c>
+      <c r="Y38">
+        <v>26.87</v>
+      </c>
+      <c r="Z38">
+        <v>4.27</v>
+      </c>
       <c r="AC38" t="s">
-        <v>185</v>
+        <v>186</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -4112,22 +4775,25 @@
       <c r="AG38">
         <v>4.856232166290283</v>
       </c>
-      <c r="AH38" t="s">
-        <v>186</v>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>300767</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>0.61</v>
@@ -4145,7 +4811,7 @@
         <v>51238.88</v>
       </c>
       <c r="J39" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K39">
         <v>3</v>
@@ -4186,8 +4852,23 @@
       <c r="W39">
         <v>-0.49</v>
       </c>
+      <c r="X39">
+        <v>-0.05</v>
+      </c>
+      <c r="Y39">
+        <v>21.6</v>
+      </c>
+      <c r="Z39">
+        <v>0.79</v>
+      </c>
       <c r="AC39" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -4195,22 +4876,25 @@
       <c r="AG39">
         <v>2.555697679519653</v>
       </c>
-      <c r="AH39" t="s">
-        <v>186</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>300803</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>-1.47</v>
@@ -4228,7 +4912,7 @@
         <v>285942.84</v>
       </c>
       <c r="J40" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K40">
         <v>7</v>
@@ -4269,8 +4953,23 @@
       <c r="W40">
         <v>-0.42</v>
       </c>
+      <c r="X40">
+        <v>3.19</v>
+      </c>
+      <c r="Y40">
+        <v>132.81</v>
+      </c>
+      <c r="Z40">
+        <v>6.51</v>
+      </c>
       <c r="AC40" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -4278,22 +4977,25 @@
       <c r="AG40">
         <v>-2.103198528289795</v>
       </c>
-      <c r="AH40" t="s">
-        <v>186</v>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>300806</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>3.69</v>
@@ -4311,7 +5013,7 @@
         <v>37191.53</v>
       </c>
       <c r="J41" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K41">
         <v>4</v>
@@ -4352,8 +5054,23 @@
       <c r="W41">
         <v>0.73</v>
       </c>
+      <c r="X41">
+        <v>-4.17</v>
+      </c>
+      <c r="Y41">
+        <v>25.97</v>
+      </c>
+      <c r="Z41">
+        <v>7.49</v>
+      </c>
       <c r="AC41" t="s">
-        <v>185</v>
+        <v>186</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>1</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -4361,22 +5078,25 @@
       <c r="AG41">
         <v>2.070571660995483</v>
       </c>
-      <c r="AH41" t="s">
-        <v>186</v>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>300810</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>-7</v>
@@ -4394,7 +5114,7 @@
         <v>93631.75</v>
       </c>
       <c r="J42" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K42">
         <v>1</v>
@@ -4435,8 +5155,23 @@
       <c r="W42">
         <v>-0.17</v>
       </c>
+      <c r="X42">
+        <v>-5.68</v>
+      </c>
+      <c r="Y42">
+        <v>57.44</v>
+      </c>
+      <c r="Z42">
+        <v>-5.67</v>
+      </c>
       <c r="AC42" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -4444,22 +5179,25 @@
       <c r="AG42">
         <v>-1.393475532531738</v>
       </c>
-      <c r="AH42" t="s">
-        <v>186</v>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>300811</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>-2.46</v>
@@ -4477,7 +5215,7 @@
         <v>36992.51</v>
       </c>
       <c r="J43" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K43">
         <v>3</v>
@@ -4518,8 +5256,23 @@
       <c r="W43">
         <v>-0.15</v>
       </c>
+      <c r="X43">
+        <v>-4.53</v>
+      </c>
+      <c r="Y43">
+        <v>73.33</v>
+      </c>
+      <c r="Z43">
+        <v>1.2</v>
+      </c>
       <c r="AC43" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -4527,22 +5280,25 @@
       <c r="AG43">
         <v>1.568799138069153</v>
       </c>
-      <c r="AH43" t="s">
-        <v>186</v>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>300814</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>-4.4</v>
@@ -4560,7 +5316,7 @@
         <v>31309.24</v>
       </c>
       <c r="J44" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K44">
         <v>3</v>
@@ -4601,8 +5357,23 @@
       <c r="W44">
         <v>-0.14</v>
       </c>
+      <c r="X44">
+        <v>-4.91</v>
+      </c>
+      <c r="Y44">
+        <v>47.28</v>
+      </c>
+      <c r="Z44">
+        <v>0.72</v>
+      </c>
       <c r="AC44" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -4610,22 +5381,25 @@
       <c r="AG44">
         <v>2.562039613723755</v>
       </c>
-      <c r="AH44" t="s">
-        <v>186</v>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>300835</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45">
         <v>-0.76</v>
@@ -4643,7 +5417,7 @@
         <v>24109.66</v>
       </c>
       <c r="J45" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K45">
         <v>22</v>
@@ -4684,8 +5458,23 @@
       <c r="W45">
         <v>-0.23</v>
       </c>
+      <c r="X45">
+        <v>-6.12</v>
+      </c>
+      <c r="Y45">
+        <v>64.7</v>
+      </c>
+      <c r="Z45">
+        <v>0.83</v>
+      </c>
       <c r="AC45" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -4693,22 +5482,25 @@
       <c r="AG45">
         <v>4.273271083831787</v>
       </c>
-      <c r="AH45" t="s">
-        <v>186</v>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>300843</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46">
         <v>-6.04</v>
@@ -4726,7 +5518,7 @@
         <v>34025.91</v>
       </c>
       <c r="J46" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K46">
         <v>4</v>
@@ -4767,8 +5559,23 @@
       <c r="W46">
         <v>-0.61</v>
       </c>
+      <c r="X46">
+        <v>4.52</v>
+      </c>
+      <c r="Y46">
+        <v>50.66</v>
+      </c>
+      <c r="Z46">
+        <v>9.369999999999999</v>
+      </c>
       <c r="AC46" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>1</v>
       </c>
       <c r="AF46">
         <v>0</v>
@@ -4776,22 +5583,25 @@
       <c r="AG46">
         <v>8.549017906188965</v>
       </c>
-      <c r="AH46" t="s">
-        <v>186</v>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>300870</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E47">
         <v>-6.03</v>
@@ -4809,7 +5619,7 @@
         <v>88712.97</v>
       </c>
       <c r="J47" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K47">
         <v>6</v>
@@ -4850,8 +5660,23 @@
       <c r="W47">
         <v>-0.06</v>
       </c>
+      <c r="X47">
+        <v>2</v>
+      </c>
+      <c r="Y47">
+        <v>257.75</v>
+      </c>
+      <c r="Z47">
+        <v>6.41</v>
+      </c>
       <c r="AC47" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
       </c>
       <c r="AF47">
         <v>0</v>
@@ -4859,22 +5684,25 @@
       <c r="AG47">
         <v>2.028645753860474</v>
       </c>
-      <c r="AH47" t="s">
-        <v>186</v>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48">
         <v>300902</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E48">
         <v>1.61</v>
@@ -4892,7 +5720,7 @@
         <v>26740.8</v>
       </c>
       <c r="J48" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K48">
         <v>6</v>
@@ -4933,8 +5761,23 @@
       <c r="W48">
         <v>-0.16</v>
       </c>
+      <c r="X48">
+        <v>-1.48</v>
+      </c>
+      <c r="Y48">
+        <v>32.44</v>
+      </c>
+      <c r="Z48">
+        <v>2.66</v>
+      </c>
       <c r="AC48" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -4942,22 +5785,25 @@
       <c r="AG48">
         <v>-0.4556581079959869</v>
       </c>
-      <c r="AH48" t="s">
-        <v>186</v>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49">
         <v>300907</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E49">
         <v>-5.36</v>
@@ -4975,7 +5821,7 @@
         <v>17113.59</v>
       </c>
       <c r="J49" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K49">
         <v>4</v>
@@ -5016,8 +5862,23 @@
       <c r="W49">
         <v>0.19</v>
       </c>
+      <c r="X49">
+        <v>-6.9</v>
+      </c>
+      <c r="Y49">
+        <v>40.18</v>
+      </c>
+      <c r="Z49">
+        <v>-0.99</v>
+      </c>
       <c r="AC49" t="s">
-        <v>185</v>
+        <v>186</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
       </c>
       <c r="AF49">
         <v>0</v>
@@ -5025,22 +5886,25 @@
       <c r="AG49">
         <v>1.528662323951721</v>
       </c>
-      <c r="AH49" t="s">
-        <v>186</v>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C50">
         <v>300913</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E50">
         <v>-3.11</v>
@@ -5058,7 +5922,7 @@
         <v>61930.59</v>
       </c>
       <c r="J50" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K50">
         <v>2</v>
@@ -5099,8 +5963,23 @@
       <c r="W50">
         <v>-0.3</v>
       </c>
+      <c r="X50">
+        <v>-0.23</v>
+      </c>
+      <c r="Y50">
+        <v>59.3</v>
+      </c>
+      <c r="Z50">
+        <v>2.35</v>
+      </c>
       <c r="AC50" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
       </c>
       <c r="AF50">
         <v>0</v>
@@ -5108,22 +5987,25 @@
       <c r="AG50">
         <v>4.889091968536377</v>
       </c>
-      <c r="AH50" t="s">
-        <v>186</v>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C51">
         <v>300951</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E51">
         <v>-1.23</v>
@@ -5141,7 +6023,7 @@
         <v>11442.53</v>
       </c>
       <c r="J51" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K51">
         <v>3</v>
@@ -5182,8 +6064,23 @@
       <c r="W51">
         <v>-0.19</v>
       </c>
+      <c r="X51">
+        <v>-2.46</v>
+      </c>
+      <c r="Y51">
+        <v>43.26</v>
+      </c>
+      <c r="Z51">
+        <v>9.85</v>
+      </c>
       <c r="AC51" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>1</v>
       </c>
       <c r="AF51">
         <v>0</v>
@@ -5191,22 +6088,25 @@
       <c r="AG51">
         <v>52.12210083007812</v>
       </c>
-      <c r="AH51" t="s">
-        <v>186</v>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C52">
         <v>300990</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E52">
         <v>-2.59</v>
@@ -5224,7 +6124,7 @@
         <v>19133.84</v>
       </c>
       <c r="J52" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K52">
         <v>3</v>
@@ -5265,8 +6165,23 @@
       <c r="W52">
         <v>0.03</v>
       </c>
+      <c r="X52">
+        <v>-10.48</v>
+      </c>
+      <c r="Y52">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="Z52">
+        <v>2.08</v>
+      </c>
       <c r="AC52" t="s">
-        <v>185</v>
+        <v>186</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
       </c>
       <c r="AF52">
         <v>0</v>
@@ -5274,22 +6189,25 @@
       <c r="AG52">
         <v>4.279360771179199</v>
       </c>
-      <c r="AH52" t="s">
-        <v>186</v>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C53">
         <v>300995</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E53">
         <v>-0.66</v>
@@ -5307,7 +6225,7 @@
         <v>33695.73</v>
       </c>
       <c r="J53" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K53">
         <v>1</v>
@@ -5348,8 +6266,23 @@
       <c r="W53">
         <v>-0.82</v>
       </c>
+      <c r="X53">
+        <v>-3.64</v>
+      </c>
+      <c r="Y53">
+        <v>65.8</v>
+      </c>
+      <c r="Z53">
+        <v>3.31</v>
+      </c>
       <c r="AC53" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>0</v>
       </c>
       <c r="AF53">
         <v>0</v>
@@ -5357,22 +6290,25 @@
       <c r="AG53">
         <v>5.313828468322754</v>
       </c>
-      <c r="AH53" t="s">
-        <v>186</v>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:34">
+    <row r="54" spans="1:35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C54">
         <v>301007</v>
       </c>
       <c r="D54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E54">
         <v>0.85</v>
@@ -5390,7 +6326,7 @@
         <v>21482.1</v>
       </c>
       <c r="J54" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K54">
         <v>6</v>
@@ -5431,8 +6367,23 @@
       <c r="W54">
         <v>0</v>
       </c>
+      <c r="X54">
+        <v>-2.59</v>
+      </c>
+      <c r="Y54">
+        <v>48.02</v>
+      </c>
+      <c r="Z54">
+        <v>3.31</v>
+      </c>
       <c r="AC54" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>0</v>
       </c>
       <c r="AF54">
         <v>0</v>
@@ -5440,22 +6391,25 @@
       <c r="AG54">
         <v>2.821269512176514</v>
       </c>
-      <c r="AH54" t="s">
-        <v>186</v>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:34">
+    <row r="55" spans="1:35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C55">
         <v>301009</v>
       </c>
       <c r="D55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E55">
         <v>0.77</v>
@@ -5473,7 +6427,7 @@
         <v>37630.81</v>
       </c>
       <c r="J55" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K55">
         <v>1</v>
@@ -5514,8 +6468,23 @@
       <c r="W55">
         <v>-0.83</v>
       </c>
+      <c r="X55">
+        <v>-3.51</v>
+      </c>
+      <c r="Y55">
+        <v>16.97</v>
+      </c>
+      <c r="Z55">
+        <v>-0.82</v>
+      </c>
       <c r="AC55" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>0</v>
       </c>
       <c r="AF55">
         <v>0</v>
@@ -5523,22 +6492,25 @@
       <c r="AG55">
         <v>9.632623672485352</v>
       </c>
-      <c r="AH55" t="s">
-        <v>186</v>
+      <c r="AH55">
+        <v>0</v>
+      </c>
+      <c r="AI55">
+        <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:34">
+    <row r="56" spans="1:35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C56">
         <v>301018</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E56">
         <v>-2.35</v>
@@ -5556,7 +6528,7 @@
         <v>49656.29</v>
       </c>
       <c r="J56" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K56">
         <v>6</v>
@@ -5597,8 +6569,23 @@
       <c r="W56">
         <v>-0.19</v>
       </c>
+      <c r="X56">
+        <v>-7.88</v>
+      </c>
+      <c r="Y56">
+        <v>69.38</v>
+      </c>
+      <c r="Z56">
+        <v>4.32</v>
+      </c>
       <c r="AC56" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>0</v>
       </c>
       <c r="AF56">
         <v>0</v>
@@ -5606,22 +6593,25 @@
       <c r="AG56">
         <v>-0.5117959380149841</v>
       </c>
-      <c r="AH56" t="s">
-        <v>186</v>
+      <c r="AH56">
+        <v>0</v>
+      </c>
+      <c r="AI56">
+        <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:34">
+    <row r="57" spans="1:35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C57">
         <v>301069</v>
       </c>
       <c r="D57" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E57">
         <v>4.46</v>
@@ -5639,7 +6629,7 @@
         <v>54114.44</v>
       </c>
       <c r="J57" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K57">
         <v>11</v>
@@ -5680,8 +6670,23 @@
       <c r="W57">
         <v>0.2</v>
       </c>
+      <c r="X57">
+        <v>-4.61</v>
+      </c>
+      <c r="Y57">
+        <v>24.5</v>
+      </c>
+      <c r="Z57">
+        <v>-3.09</v>
+      </c>
       <c r="AC57" t="s">
-        <v>185</v>
+        <v>186</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>0</v>
       </c>
       <c r="AF57">
         <v>0</v>
@@ -5689,22 +6694,25 @@
       <c r="AG57">
         <v>1.692294716835022</v>
       </c>
-      <c r="AH57" t="s">
-        <v>186</v>
+      <c r="AH57">
+        <v>0</v>
+      </c>
+      <c r="AI57">
+        <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:34">
+    <row r="58" spans="1:35">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C58">
         <v>301076</v>
       </c>
       <c r="D58" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E58">
         <v>1.31</v>
@@ -5722,7 +6730,7 @@
         <v>67484.61</v>
       </c>
       <c r="J58" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K58">
         <v>11</v>
@@ -5763,8 +6771,23 @@
       <c r="W58">
         <v>0.02</v>
       </c>
+      <c r="X58">
+        <v>-3.14</v>
+      </c>
+      <c r="Y58">
+        <v>56.5</v>
+      </c>
+      <c r="Z58">
+        <v>-4.11</v>
+      </c>
       <c r="AC58" t="s">
-        <v>185</v>
+        <v>186</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <v>0</v>
       </c>
       <c r="AF58">
         <v>0</v>
@@ -5772,22 +6795,25 @@
       <c r="AG58">
         <v>0.06529799103736877</v>
       </c>
-      <c r="AH58" t="s">
-        <v>186</v>
+      <c r="AH58">
+        <v>0</v>
+      </c>
+      <c r="AI58">
+        <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:34">
+    <row r="59" spans="1:35">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C59">
         <v>301086</v>
       </c>
       <c r="D59" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E59">
         <v>-2.3</v>
@@ -5805,7 +6831,7 @@
         <v>10036.16</v>
       </c>
       <c r="J59" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K59">
         <v>3</v>
@@ -5846,8 +6872,23 @@
       <c r="W59">
         <v>-0.14</v>
       </c>
+      <c r="X59">
+        <v>-7.8</v>
+      </c>
+      <c r="Y59">
+        <v>71.72</v>
+      </c>
+      <c r="Z59">
+        <v>7.01</v>
+      </c>
       <c r="AC59" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59">
+        <v>1</v>
       </c>
       <c r="AF59">
         <v>0</v>
@@ -5855,22 +6896,25 @@
       <c r="AG59">
         <v>1.607494354248047</v>
       </c>
-      <c r="AH59" t="s">
-        <v>186</v>
+      <c r="AH59">
+        <v>0</v>
+      </c>
+      <c r="AI59">
+        <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:34">
+    <row r="60" spans="1:35">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C60">
         <v>301120</v>
       </c>
       <c r="D60" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E60">
         <v>-4.47</v>
@@ -5888,7 +6932,7 @@
         <v>29214.5</v>
       </c>
       <c r="J60" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K60">
         <v>12</v>
@@ -5929,8 +6973,23 @@
       <c r="W60">
         <v>-1.25</v>
       </c>
+      <c r="X60">
+        <v>-3.14</v>
+      </c>
+      <c r="Y60">
+        <v>16.43</v>
+      </c>
+      <c r="Z60">
+        <v>2.62</v>
+      </c>
       <c r="AC60" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="AD60">
+        <v>0</v>
+      </c>
+      <c r="AE60">
+        <v>0</v>
       </c>
       <c r="AF60">
         <v>0</v>
@@ -5938,22 +6997,25 @@
       <c r="AG60">
         <v>6.657827854156494</v>
       </c>
-      <c r="AH60" t="s">
-        <v>186</v>
+      <c r="AH60">
+        <v>0</v>
+      </c>
+      <c r="AI60">
+        <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:34">
+    <row r="61" spans="1:35">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C61">
         <v>301123</v>
       </c>
       <c r="D61" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E61">
         <v>-4.31</v>
@@ -5971,7 +7033,7 @@
         <v>42475.03</v>
       </c>
       <c r="J61" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K61">
         <v>12</v>
@@ -6012,8 +7074,23 @@
       <c r="W61">
         <v>0.18</v>
       </c>
+      <c r="X61">
+        <v>-6.96</v>
+      </c>
+      <c r="Y61">
+        <v>46.94</v>
+      </c>
+      <c r="Z61">
+        <v>0.28</v>
+      </c>
       <c r="AC61" t="s">
-        <v>185</v>
+        <v>186</v>
+      </c>
+      <c r="AD61">
+        <v>0</v>
+      </c>
+      <c r="AE61">
+        <v>0</v>
       </c>
       <c r="AF61">
         <v>1</v>
@@ -6021,22 +7098,25 @@
       <c r="AG61">
         <v>6.209358215332031</v>
       </c>
-      <c r="AH61" t="s">
-        <v>187</v>
+      <c r="AH61">
+        <v>1</v>
+      </c>
+      <c r="AI61">
+        <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:34">
+    <row r="62" spans="1:35">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C62">
         <v>301128</v>
       </c>
       <c r="D62" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E62">
         <v>-1.99</v>
@@ -6054,7 +7134,7 @@
         <v>60516.45</v>
       </c>
       <c r="J62" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K62">
         <v>6</v>
@@ -6095,8 +7175,23 @@
       <c r="W62">
         <v>0.04</v>
       </c>
+      <c r="X62">
+        <v>-3.81</v>
+      </c>
+      <c r="Y62">
+        <v>105.55</v>
+      </c>
+      <c r="Z62">
+        <v>9.91</v>
+      </c>
       <c r="AC62" t="s">
-        <v>185</v>
+        <v>186</v>
+      </c>
+      <c r="AD62">
+        <v>0</v>
+      </c>
+      <c r="AE62">
+        <v>1</v>
       </c>
       <c r="AF62">
         <v>0</v>
@@ -6104,22 +7199,25 @@
       <c r="AG62">
         <v>2.477818489074707</v>
       </c>
-      <c r="AH62" t="s">
-        <v>186</v>
+      <c r="AH62">
+        <v>0</v>
+      </c>
+      <c r="AI62">
+        <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:34">
+    <row r="63" spans="1:35">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C63">
         <v>301151</v>
       </c>
       <c r="D63" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E63">
         <v>-1.97</v>
@@ -6137,7 +7235,7 @@
         <v>22468.76</v>
       </c>
       <c r="J63" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K63">
         <v>2</v>
@@ -6178,8 +7276,23 @@
       <c r="W63">
         <v>-1.73</v>
       </c>
+      <c r="X63">
+        <v>-3.1</v>
+      </c>
+      <c r="Y63">
+        <v>25.55</v>
+      </c>
+      <c r="Z63">
+        <v>0.63</v>
+      </c>
       <c r="AC63" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="AD63">
+        <v>0</v>
+      </c>
+      <c r="AE63">
+        <v>0</v>
       </c>
       <c r="AF63">
         <v>0</v>
@@ -6187,22 +7300,25 @@
       <c r="AG63">
         <v>27.08642387390137</v>
       </c>
-      <c r="AH63" t="s">
-        <v>186</v>
+      <c r="AH63">
+        <v>0</v>
+      </c>
+      <c r="AI63">
+        <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:34">
+    <row r="64" spans="1:35">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C64">
         <v>301161</v>
       </c>
       <c r="D64" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E64">
         <v>-2.4</v>
@@ -6220,7 +7336,7 @@
         <v>17768.8</v>
       </c>
       <c r="J64" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K64">
         <v>13</v>
@@ -6261,8 +7377,23 @@
       <c r="W64">
         <v>-0.74</v>
       </c>
+      <c r="X64">
+        <v>-1.25</v>
+      </c>
+      <c r="Y64">
+        <v>45.88</v>
+      </c>
+      <c r="Z64">
+        <v>2.46</v>
+      </c>
       <c r="AC64" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="AD64">
+        <v>0</v>
+      </c>
+      <c r="AE64">
+        <v>0</v>
       </c>
       <c r="AF64">
         <v>0</v>
@@ -6270,22 +7401,25 @@
       <c r="AG64">
         <v>3.808691740036011</v>
       </c>
-      <c r="AH64" t="s">
-        <v>186</v>
+      <c r="AH64">
+        <v>0</v>
+      </c>
+      <c r="AI64">
+        <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:34">
+    <row r="65" spans="1:35">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C65">
         <v>301165</v>
       </c>
       <c r="D65" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E65">
         <v>-2</v>
@@ -6303,7 +7437,7 @@
         <v>56390.11</v>
       </c>
       <c r="J65" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K65">
         <v>7</v>
@@ -6344,8 +7478,23 @@
       <c r="W65">
         <v>-0.58</v>
       </c>
+      <c r="X65">
+        <v>-2.78</v>
+      </c>
+      <c r="Y65">
+        <v>83.98999999999999</v>
+      </c>
+      <c r="Z65">
+        <v>2.64</v>
+      </c>
       <c r="AC65" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="AD65">
+        <v>0</v>
+      </c>
+      <c r="AE65">
+        <v>0</v>
       </c>
       <c r="AF65">
         <v>0</v>
@@ -6353,22 +7502,25 @@
       <c r="AG65">
         <v>1.496772885322571</v>
       </c>
-      <c r="AH65" t="s">
-        <v>186</v>
+      <c r="AH65">
+        <v>0</v>
+      </c>
+      <c r="AI65">
+        <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:34">
+    <row r="66" spans="1:35">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C66">
         <v>301183</v>
       </c>
       <c r="D66" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E66">
         <v>-3.68</v>
@@ -6386,7 +7538,7 @@
         <v>40428.1</v>
       </c>
       <c r="J66" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K66">
         <v>2</v>
@@ -6427,8 +7579,23 @@
       <c r="W66">
         <v>-0.19</v>
       </c>
+      <c r="X66">
+        <v>-4.77</v>
+      </c>
+      <c r="Y66">
+        <v>79.25</v>
+      </c>
+      <c r="Z66">
+        <v>0.34</v>
+      </c>
       <c r="AC66" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="AD66">
+        <v>0</v>
+      </c>
+      <c r="AE66">
+        <v>0</v>
       </c>
       <c r="AF66">
         <v>0</v>
@@ -6436,22 +7603,25 @@
       <c r="AG66">
         <v>3.202460527420044</v>
       </c>
-      <c r="AH66" t="s">
-        <v>186</v>
+      <c r="AH66">
+        <v>0</v>
+      </c>
+      <c r="AI66">
+        <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:34">
+    <row r="67" spans="1:35">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C67">
         <v>301205</v>
       </c>
       <c r="D67" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E67">
         <v>-3.99</v>
@@ -6469,7 +7639,7 @@
         <v>50271.18</v>
       </c>
       <c r="J67" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K67">
         <v>1</v>
@@ -6510,8 +7680,23 @@
       <c r="W67">
         <v>-0.51</v>
       </c>
+      <c r="X67">
+        <v>-2.67</v>
+      </c>
+      <c r="Y67">
+        <v>111</v>
+      </c>
+      <c r="Z67">
+        <v>3.23</v>
+      </c>
       <c r="AC67" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="AD67">
+        <v>0</v>
+      </c>
+      <c r="AE67">
+        <v>0</v>
       </c>
       <c r="AF67">
         <v>0</v>
@@ -6519,22 +7704,25 @@
       <c r="AG67">
         <v>-5.306954383850098</v>
       </c>
-      <c r="AH67" t="s">
-        <v>186</v>
+      <c r="AH67">
+        <v>0</v>
+      </c>
+      <c r="AI67">
+        <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:34">
+    <row r="68" spans="1:35">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C68">
         <v>301217</v>
       </c>
       <c r="D68" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -6552,7 +7740,7 @@
         <v>86377.89</v>
       </c>
       <c r="J68" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K68">
         <v>33</v>
@@ -6593,8 +7781,23 @@
       <c r="W68">
         <v>-0.01</v>
       </c>
+      <c r="X68">
+        <v>-6.46</v>
+      </c>
+      <c r="Y68">
+        <v>33.42</v>
+      </c>
+      <c r="Z68">
+        <v>3.53</v>
+      </c>
       <c r="AC68" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="AD68">
+        <v>0</v>
+      </c>
+      <c r="AE68">
+        <v>0</v>
       </c>
       <c r="AF68">
         <v>0</v>
@@ -6602,22 +7805,25 @@
       <c r="AG68">
         <v>5.049637794494629</v>
       </c>
-      <c r="AH68" t="s">
-        <v>186</v>
+      <c r="AH68">
+        <v>0</v>
+      </c>
+      <c r="AI68">
+        <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:34">
+    <row r="69" spans="1:35">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C69">
         <v>301226</v>
       </c>
       <c r="D69" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E69">
         <v>-4.64</v>
@@ -6635,7 +7841,7 @@
         <v>20081.45</v>
       </c>
       <c r="J69" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K69">
         <v>3</v>
@@ -6676,8 +7882,23 @@
       <c r="W69">
         <v>-0.04</v>
       </c>
+      <c r="X69">
+        <v>-5.46</v>
+      </c>
+      <c r="Y69">
+        <v>38.99</v>
+      </c>
+      <c r="Z69">
+        <v>-1.24</v>
+      </c>
       <c r="AC69" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="AD69">
+        <v>0</v>
+      </c>
+      <c r="AE69">
+        <v>0</v>
       </c>
       <c r="AF69">
         <v>0</v>
@@ -6685,22 +7906,25 @@
       <c r="AG69">
         <v>3.909696817398071</v>
       </c>
-      <c r="AH69" t="s">
-        <v>186</v>
+      <c r="AH69">
+        <v>0</v>
+      </c>
+      <c r="AI69">
+        <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:34">
+    <row r="70" spans="1:35">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C70">
         <v>301326</v>
       </c>
       <c r="D70" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E70">
         <v>-3.78</v>
@@ -6718,7 +7942,7 @@
         <v>14495.31</v>
       </c>
       <c r="J70" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K70">
         <v>9</v>
@@ -6759,8 +7983,23 @@
       <c r="W70">
         <v>-0.26</v>
       </c>
+      <c r="X70">
+        <v>-4.25</v>
+      </c>
+      <c r="Y70">
+        <v>102.26</v>
+      </c>
+      <c r="Z70">
+        <v>0.25</v>
+      </c>
       <c r="AC70" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="AD70">
+        <v>0</v>
+      </c>
+      <c r="AE70">
+        <v>0</v>
       </c>
       <c r="AF70">
         <v>0</v>
@@ -6768,22 +8007,25 @@
       <c r="AG70">
         <v>8.64319896697998</v>
       </c>
-      <c r="AH70" t="s">
-        <v>186</v>
+      <c r="AH70">
+        <v>0</v>
+      </c>
+      <c r="AI70">
+        <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:34">
+    <row r="71" spans="1:35">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C71">
         <v>301357</v>
       </c>
       <c r="D71" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E71">
         <v>3.64</v>
@@ -6801,7 +8043,7 @@
         <v>73945.61</v>
       </c>
       <c r="J71" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K71">
         <v>17</v>
@@ -6842,8 +8084,23 @@
       <c r="W71">
         <v>0.02</v>
       </c>
+      <c r="X71">
+        <v>-3.63</v>
+      </c>
+      <c r="Y71">
+        <v>175</v>
+      </c>
+      <c r="Z71">
+        <v>-2.4</v>
+      </c>
       <c r="AC71" t="s">
-        <v>185</v>
+        <v>186</v>
+      </c>
+      <c r="AD71">
+        <v>0</v>
+      </c>
+      <c r="AE71">
+        <v>0</v>
       </c>
       <c r="AF71">
         <v>0</v>
@@ -6851,22 +8108,25 @@
       <c r="AG71">
         <v>2.558761358261108</v>
       </c>
-      <c r="AH71" t="s">
-        <v>186</v>
+      <c r="AH71">
+        <v>0</v>
+      </c>
+      <c r="AI71">
+        <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:34">
+    <row r="72" spans="1:35">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C72">
         <v>301398</v>
       </c>
       <c r="D72" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E72">
         <v>2.32</v>
@@ -6884,7 +8144,7 @@
         <v>39313.22</v>
       </c>
       <c r="J72" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K72">
         <v>4</v>
@@ -6925,8 +8185,23 @@
       <c r="W72">
         <v>0.09</v>
       </c>
+      <c r="X72">
+        <v>-8.43</v>
+      </c>
+      <c r="Y72">
+        <v>54.7</v>
+      </c>
+      <c r="Z72">
+        <v>-1.72</v>
+      </c>
       <c r="AC72" t="s">
-        <v>185</v>
+        <v>186</v>
+      </c>
+      <c r="AD72">
+        <v>0</v>
+      </c>
+      <c r="AE72">
+        <v>0</v>
       </c>
       <c r="AF72">
         <v>0</v>
@@ -6934,22 +8209,25 @@
       <c r="AG72">
         <v>3.321145296096802</v>
       </c>
-      <c r="AH72" t="s">
-        <v>186</v>
+      <c r="AH72">
+        <v>0</v>
+      </c>
+      <c r="AI72">
+        <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:34">
+    <row r="73" spans="1:35">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C73">
         <v>301489</v>
       </c>
       <c r="D73" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E73">
         <v>-2.87</v>
@@ -6967,7 +8245,7 @@
         <v>63583.67</v>
       </c>
       <c r="J73" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K73">
         <v>15</v>
@@ -7008,8 +8286,23 @@
       <c r="W73">
         <v>-0.24</v>
       </c>
+      <c r="X73">
+        <v>-3.85</v>
+      </c>
+      <c r="Y73">
+        <v>176.99</v>
+      </c>
+      <c r="Z73">
+        <v>0.31</v>
+      </c>
       <c r="AC73" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="AD73">
+        <v>0</v>
+      </c>
+      <c r="AE73">
+        <v>0</v>
       </c>
       <c r="AF73">
         <v>0</v>
@@ -7017,22 +8310,25 @@
       <c r="AG73">
         <v>-0.8715179562568665</v>
       </c>
-      <c r="AH73" t="s">
-        <v>186</v>
+      <c r="AH73">
+        <v>0</v>
+      </c>
+      <c r="AI73">
+        <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:34">
+    <row r="74" spans="1:35">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C74">
         <v>301511</v>
       </c>
       <c r="D74" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E74">
         <v>-2.38</v>
@@ -7050,7 +8346,7 @@
         <v>88269.87</v>
       </c>
       <c r="J74" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K74">
         <v>42</v>
@@ -7091,8 +8387,23 @@
       <c r="W74">
         <v>-0.27</v>
       </c>
+      <c r="X74">
+        <v>-8.08</v>
+      </c>
+      <c r="Y74">
+        <v>40.6</v>
+      </c>
+      <c r="Z74">
+        <v>1.93</v>
+      </c>
       <c r="AC74" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="AD74">
+        <v>0</v>
+      </c>
+      <c r="AE74">
+        <v>0</v>
       </c>
       <c r="AF74">
         <v>0</v>
@@ -7100,22 +8411,25 @@
       <c r="AG74">
         <v>5.512176513671875</v>
       </c>
-      <c r="AH74" t="s">
-        <v>186</v>
+      <c r="AH74">
+        <v>0</v>
+      </c>
+      <c r="AI74">
+        <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:34">
+    <row r="75" spans="1:35">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C75">
         <v>301525</v>
       </c>
       <c r="D75" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E75">
         <v>-5.97</v>
@@ -7133,7 +8447,7 @@
         <v>21930.22</v>
       </c>
       <c r="J75" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K75">
         <v>2</v>
@@ -7174,8 +8488,23 @@
       <c r="W75">
         <v>0.01</v>
       </c>
+      <c r="X75">
+        <v>-6.23</v>
+      </c>
+      <c r="Y75">
+        <v>100.59</v>
+      </c>
+      <c r="Z75">
+        <v>0.41</v>
+      </c>
       <c r="AC75" t="s">
-        <v>185</v>
+        <v>186</v>
+      </c>
+      <c r="AD75">
+        <v>0</v>
+      </c>
+      <c r="AE75">
+        <v>0</v>
       </c>
       <c r="AF75">
         <v>0</v>
@@ -7183,22 +8512,25 @@
       <c r="AG75">
         <v>6.57327938079834</v>
       </c>
-      <c r="AH75" t="s">
-        <v>186</v>
+      <c r="AH75">
+        <v>0</v>
+      </c>
+      <c r="AI75">
+        <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:34">
+    <row r="76" spans="1:35">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C76">
         <v>301526</v>
       </c>
       <c r="D76" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E76">
         <v>-0.76</v>
@@ -7216,7 +8548,7 @@
         <v>57372.63</v>
       </c>
       <c r="J76" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K76">
         <v>10</v>
@@ -7257,8 +8589,23 @@
       <c r="W76">
         <v>-0.26</v>
       </c>
+      <c r="X76">
+        <v>-2.96</v>
+      </c>
+      <c r="Y76">
+        <v>6.45</v>
+      </c>
+      <c r="Z76">
+        <v>-1.07</v>
+      </c>
       <c r="AC76" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="AD76">
+        <v>0</v>
+      </c>
+      <c r="AE76">
+        <v>0</v>
       </c>
       <c r="AF76">
         <v>0</v>
@@ -7266,22 +8613,25 @@
       <c r="AG76">
         <v>-5.787603855133057</v>
       </c>
-      <c r="AH76" t="s">
-        <v>186</v>
+      <c r="AH76">
+        <v>0</v>
+      </c>
+      <c r="AI76">
+        <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:34">
+    <row r="77" spans="1:35">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C77">
         <v>301626</v>
       </c>
       <c r="D77" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E77">
         <v>11.79</v>
@@ -7299,7 +8649,7 @@
         <v>44360.37</v>
       </c>
       <c r="J77" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K77">
         <v>4</v>
@@ -7340,8 +8690,23 @@
       <c r="W77">
         <v>0.99</v>
       </c>
+      <c r="X77">
+        <v>1.31</v>
+      </c>
+      <c r="Y77">
+        <v>173.9</v>
+      </c>
+      <c r="Z77">
+        <v>-1.06</v>
+      </c>
       <c r="AC77" t="s">
-        <v>185</v>
+        <v>186</v>
+      </c>
+      <c r="AD77">
+        <v>0</v>
+      </c>
+      <c r="AE77">
+        <v>0</v>
       </c>
       <c r="AF77">
         <v>0</v>
@@ -7349,22 +8714,25 @@
       <c r="AG77">
         <v>0.5924044847488403</v>
       </c>
-      <c r="AH77" t="s">
-        <v>186</v>
+      <c r="AH77">
+        <v>0</v>
+      </c>
+      <c r="AI77">
+        <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:34">
+    <row r="78" spans="1:35">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C78">
         <v>688035</v>
       </c>
       <c r="D78" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E78">
         <v>3.45</v>
@@ -7382,7 +8750,7 @@
         <v>41067.94</v>
       </c>
       <c r="J78" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K78">
         <v>3</v>
@@ -7423,8 +8791,23 @@
       <c r="W78">
         <v>0.44</v>
       </c>
+      <c r="X78">
+        <v>-8.710000000000001</v>
+      </c>
+      <c r="Y78">
+        <v>63.62</v>
+      </c>
+      <c r="Z78">
+        <v>1.39</v>
+      </c>
       <c r="AC78" t="s">
-        <v>185</v>
+        <v>186</v>
+      </c>
+      <c r="AD78">
+        <v>0</v>
+      </c>
+      <c r="AE78">
+        <v>0</v>
       </c>
       <c r="AF78">
         <v>0</v>
@@ -7432,22 +8815,25 @@
       <c r="AG78">
         <v>2.477300643920898</v>
       </c>
-      <c r="AH78" t="s">
-        <v>186</v>
+      <c r="AH78">
+        <v>0</v>
+      </c>
+      <c r="AI78">
+        <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:34">
+    <row r="79" spans="1:35">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C79">
         <v>688098</v>
       </c>
       <c r="D79" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E79">
         <v>2.73</v>
@@ -7465,7 +8851,7 @@
         <v>73265.42</v>
       </c>
       <c r="J79" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K79">
         <v>1</v>
@@ -7506,8 +8892,23 @@
       <c r="W79">
         <v>-1.11</v>
       </c>
+      <c r="X79">
+        <v>-11.86</v>
+      </c>
+      <c r="Y79">
+        <v>14.93</v>
+      </c>
+      <c r="Z79">
+        <v>-5.63</v>
+      </c>
       <c r="AC79" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="AD79">
+        <v>0</v>
+      </c>
+      <c r="AE79">
+        <v>0</v>
       </c>
       <c r="AF79">
         <v>0</v>
@@ -7515,22 +8916,25 @@
       <c r="AG79">
         <v>-7.157551765441895</v>
       </c>
-      <c r="AH79" t="s">
-        <v>186</v>
+      <c r="AH79">
+        <v>0</v>
+      </c>
+      <c r="AI79">
+        <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:34">
+    <row r="80" spans="1:35">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C80">
         <v>688108</v>
       </c>
       <c r="D80" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E80">
         <v>2.15</v>
@@ -7548,7 +8952,7 @@
         <v>123070.86</v>
       </c>
       <c r="J80" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K80">
         <v>8</v>
@@ -7589,8 +8993,23 @@
       <c r="W80">
         <v>-0.14</v>
       </c>
+      <c r="X80">
+        <v>-8.210000000000001</v>
+      </c>
+      <c r="Y80">
+        <v>37.95</v>
+      </c>
+      <c r="Z80">
+        <v>-8.09</v>
+      </c>
       <c r="AC80" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="AD80">
+        <v>0</v>
+      </c>
+      <c r="AE80">
+        <v>0</v>
       </c>
       <c r="AF80">
         <v>0</v>
@@ -7598,22 +9017,25 @@
       <c r="AG80">
         <v>3.684837102890015</v>
       </c>
-      <c r="AH80" t="s">
-        <v>186</v>
+      <c r="AH80">
+        <v>0</v>
+      </c>
+      <c r="AI80">
+        <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:34">
+    <row r="81" spans="1:35">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C81">
         <v>688110</v>
       </c>
       <c r="D81" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E81">
         <v>-5.59</v>
@@ -7631,7 +9053,7 @@
         <v>182200.29</v>
       </c>
       <c r="J81" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K81">
         <v>17</v>
@@ -7672,8 +9094,23 @@
       <c r="W81">
         <v>-0.68</v>
       </c>
+      <c r="X81">
+        <v>-12.37</v>
+      </c>
+      <c r="Y81">
+        <v>101.38</v>
+      </c>
+      <c r="Z81">
+        <v>5.17</v>
+      </c>
       <c r="AC81" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="AD81">
+        <v>0</v>
+      </c>
+      <c r="AE81">
+        <v>0</v>
       </c>
       <c r="AF81">
         <v>0</v>
@@ -7681,22 +9118,25 @@
       <c r="AG81">
         <v>3.502223253250122</v>
       </c>
-      <c r="AH81" t="s">
-        <v>186</v>
+      <c r="AH81">
+        <v>0</v>
+      </c>
+      <c r="AI81">
+        <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:34">
+    <row r="82" spans="1:35">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C82">
         <v>688167</v>
       </c>
       <c r="D82" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E82">
         <v>6.33</v>
@@ -7714,7 +9154,7 @@
         <v>55998.72</v>
       </c>
       <c r="J82" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K82">
         <v>11</v>
@@ -7755,8 +9195,23 @@
       <c r="W82">
         <v>0.02</v>
       </c>
+      <c r="X82">
+        <v>-1.58</v>
+      </c>
+      <c r="Y82">
+        <v>130</v>
+      </c>
+      <c r="Z82">
+        <v>2.77</v>
+      </c>
       <c r="AC82" t="s">
-        <v>185</v>
+        <v>186</v>
+      </c>
+      <c r="AD82">
+        <v>0</v>
+      </c>
+      <c r="AE82">
+        <v>0</v>
       </c>
       <c r="AF82">
         <v>0</v>
@@ -7764,22 +9219,25 @@
       <c r="AG82">
         <v>2.943656444549561</v>
       </c>
-      <c r="AH82" t="s">
-        <v>186</v>
+      <c r="AH82">
+        <v>0</v>
+      </c>
+      <c r="AI82">
+        <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:34">
+    <row r="83" spans="1:35">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C83">
         <v>688195</v>
       </c>
       <c r="D83" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E83">
         <v>-0.79</v>
@@ -7797,7 +9255,7 @@
         <v>59620.2</v>
       </c>
       <c r="J83" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K83">
         <v>3</v>
@@ -7838,8 +9296,23 @@
       <c r="W83">
         <v>-0.19</v>
       </c>
+      <c r="X83">
+        <v>-8.15</v>
+      </c>
+      <c r="Y83">
+        <v>67.73</v>
+      </c>
+      <c r="Z83">
+        <v>1.24</v>
+      </c>
       <c r="AC83" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="AD83">
+        <v>0</v>
+      </c>
+      <c r="AE83">
+        <v>0</v>
       </c>
       <c r="AF83">
         <v>0</v>
@@ -7847,22 +9320,25 @@
       <c r="AG83">
         <v>3.236842155456543</v>
       </c>
-      <c r="AH83" t="s">
-        <v>186</v>
+      <c r="AH83">
+        <v>0</v>
+      </c>
+      <c r="AI83">
+        <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:34">
+    <row r="84" spans="1:35">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C84">
         <v>688199</v>
       </c>
       <c r="D84" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E84">
         <v>0.89</v>
@@ -7880,7 +9356,7 @@
         <v>14260.43</v>
       </c>
       <c r="J84" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K84">
         <v>6</v>
@@ -7921,8 +9397,23 @@
       <c r="W84">
         <v>0.53</v>
       </c>
+      <c r="X84">
+        <v>-3.59</v>
+      </c>
+      <c r="Y84">
+        <v>29.5</v>
+      </c>
+      <c r="Z84">
+        <v>0.44</v>
+      </c>
       <c r="AC84" t="s">
-        <v>185</v>
+        <v>186</v>
+      </c>
+      <c r="AD84">
+        <v>0</v>
+      </c>
+      <c r="AE84">
+        <v>0</v>
       </c>
       <c r="AF84">
         <v>0</v>
@@ -7930,22 +9421,25 @@
       <c r="AG84">
         <v>2.703524589538574</v>
       </c>
-      <c r="AH84" t="s">
-        <v>186</v>
+      <c r="AH84">
+        <v>0</v>
+      </c>
+      <c r="AI84">
+        <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:34">
+    <row r="85" spans="1:35">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C85">
         <v>688270</v>
       </c>
       <c r="D85" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E85">
         <v>-2.19</v>
@@ -7963,7 +9457,7 @@
         <v>56449.4</v>
       </c>
       <c r="J85" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K85">
         <v>6</v>
@@ -8004,8 +9498,23 @@
       <c r="W85">
         <v>-0.16</v>
       </c>
+      <c r="X85">
+        <v>-4.95</v>
+      </c>
+      <c r="Y85">
+        <v>70.77</v>
+      </c>
+      <c r="Z85">
+        <v>-0.76</v>
+      </c>
       <c r="AC85" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="AD85">
+        <v>0</v>
+      </c>
+      <c r="AE85">
+        <v>0</v>
       </c>
       <c r="AF85">
         <v>0</v>
@@ -8013,22 +9522,25 @@
       <c r="AG85">
         <v>-1.122443437576294</v>
       </c>
-      <c r="AH85" t="s">
-        <v>186</v>
+      <c r="AH85">
+        <v>0</v>
+      </c>
+      <c r="AI85">
+        <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:34">
+    <row r="86" spans="1:35">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C86">
         <v>688379</v>
       </c>
       <c r="D86" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E86">
         <v>1.22</v>
@@ -8046,7 +9558,7 @@
         <v>16582.18</v>
       </c>
       <c r="J86" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K86">
         <v>9</v>
@@ -8087,8 +9599,23 @@
       <c r="W86">
         <v>0.15</v>
       </c>
+      <c r="X86">
+        <v>-10.68</v>
+      </c>
+      <c r="Y86">
+        <v>72.3</v>
+      </c>
+      <c r="Z86">
+        <v>7.46</v>
+      </c>
       <c r="AC86" t="s">
-        <v>185</v>
+        <v>186</v>
+      </c>
+      <c r="AD86">
+        <v>0</v>
+      </c>
+      <c r="AE86">
+        <v>1</v>
       </c>
       <c r="AF86">
         <v>0</v>
@@ -8096,22 +9623,25 @@
       <c r="AG86">
         <v>3.598548650741577</v>
       </c>
-      <c r="AH86" t="s">
-        <v>186</v>
+      <c r="AH86">
+        <v>0</v>
+      </c>
+      <c r="AI86">
+        <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:34">
+    <row r="87" spans="1:35">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C87">
         <v>688381</v>
       </c>
       <c r="D87" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E87">
         <v>-5.85</v>
@@ -8129,7 +9659,7 @@
         <v>41303.76</v>
       </c>
       <c r="J87" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K87">
         <v>2</v>
@@ -8170,8 +9700,23 @@
       <c r="W87">
         <v>-0.91</v>
       </c>
+      <c r="X87">
+        <v>-3.55</v>
+      </c>
+      <c r="Y87">
+        <v>29.25</v>
+      </c>
+      <c r="Z87">
+        <v>4.39</v>
+      </c>
       <c r="AC87" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="AD87">
+        <v>0</v>
+      </c>
+      <c r="AE87">
+        <v>0</v>
       </c>
       <c r="AF87">
         <v>0</v>
@@ -8179,22 +9724,25 @@
       <c r="AG87">
         <v>2.143416166305542</v>
       </c>
-      <c r="AH87" t="s">
-        <v>186</v>
+      <c r="AH87">
+        <v>0</v>
+      </c>
+      <c r="AI87">
+        <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:34">
+    <row r="88" spans="1:35">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C88">
         <v>688448</v>
       </c>
       <c r="D88" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E88">
         <v>-8.43</v>
@@ -8212,7 +9760,7 @@
         <v>15848.58</v>
       </c>
       <c r="J88" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K88">
         <v>6</v>
@@ -8253,8 +9801,23 @@
       <c r="W88">
         <v>-0.78</v>
       </c>
+      <c r="X88">
+        <v>-6.05</v>
+      </c>
+      <c r="Y88">
+        <v>63</v>
+      </c>
+      <c r="Z88">
+        <v>5.6</v>
+      </c>
       <c r="AC88" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="AD88">
+        <v>0</v>
+      </c>
+      <c r="AE88">
+        <v>0</v>
       </c>
       <c r="AF88">
         <v>0</v>
@@ -8262,22 +9825,25 @@
       <c r="AG88">
         <v>2.673684358596802</v>
       </c>
-      <c r="AH88" t="s">
-        <v>186</v>
+      <c r="AH88">
+        <v>0</v>
+      </c>
+      <c r="AI88">
+        <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:34">
+    <row r="89" spans="1:35">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C89">
         <v>688502</v>
       </c>
       <c r="D89" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E89">
         <v>5.75</v>
@@ -8295,7 +9861,7 @@
         <v>31404.33</v>
       </c>
       <c r="J89" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K89">
         <v>18</v>
@@ -8336,8 +9902,23 @@
       <c r="W89">
         <v>0.75</v>
       </c>
+      <c r="X89">
+        <v>-1.98</v>
+      </c>
+      <c r="Y89">
+        <v>423.7</v>
+      </c>
+      <c r="Z89">
+        <v>6.2</v>
+      </c>
       <c r="AC89" t="s">
-        <v>185</v>
+        <v>186</v>
+      </c>
+      <c r="AD89">
+        <v>0</v>
+      </c>
+      <c r="AE89">
+        <v>0</v>
       </c>
       <c r="AF89">
         <v>0</v>
@@ -8345,22 +9926,25 @@
       <c r="AG89">
         <v>-0.861339271068573</v>
       </c>
-      <c r="AH89" t="s">
-        <v>186</v>
+      <c r="AH89">
+        <v>0</v>
+      </c>
+      <c r="AI89">
+        <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:34">
+    <row r="90" spans="1:35">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C90">
         <v>688556</v>
       </c>
       <c r="D90" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E90">
         <v>-2.84</v>
@@ -8378,7 +9962,7 @@
         <v>29639.83</v>
       </c>
       <c r="J90" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K90">
         <v>18</v>
@@ -8419,8 +10003,23 @@
       <c r="W90">
         <v>0.31</v>
       </c>
+      <c r="X90">
+        <v>-4.21</v>
+      </c>
+      <c r="Y90">
+        <v>12.99</v>
+      </c>
+      <c r="Z90">
+        <v>2.61</v>
+      </c>
       <c r="AC90" t="s">
-        <v>185</v>
+        <v>186</v>
+      </c>
+      <c r="AD90">
+        <v>0</v>
+      </c>
+      <c r="AE90">
+        <v>0</v>
       </c>
       <c r="AF90">
         <v>0</v>
@@ -8428,22 +10027,25 @@
       <c r="AG90">
         <v>17.46931266784668</v>
       </c>
-      <c r="AH90" t="s">
-        <v>186</v>
+      <c r="AH90">
+        <v>0</v>
+      </c>
+      <c r="AI90">
+        <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:34">
+    <row r="91" spans="1:35">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C91">
         <v>688584</v>
       </c>
       <c r="D91" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E91">
         <v>2.42</v>
@@ -8461,7 +10063,7 @@
         <v>27462.79</v>
       </c>
       <c r="J91" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K91">
         <v>6</v>
@@ -8502,8 +10104,23 @@
       <c r="W91">
         <v>0.17</v>
       </c>
+      <c r="X91">
+        <v>-3.39</v>
+      </c>
+      <c r="Y91">
+        <v>29.65</v>
+      </c>
+      <c r="Z91">
+        <v>14.83</v>
+      </c>
       <c r="AC91" t="s">
-        <v>185</v>
+        <v>186</v>
+      </c>
+      <c r="AD91">
+        <v>0</v>
+      </c>
+      <c r="AE91">
+        <v>1</v>
       </c>
       <c r="AF91">
         <v>0</v>
@@ -8511,22 +10128,25 @@
       <c r="AG91">
         <v>2.792041778564453</v>
       </c>
-      <c r="AH91" t="s">
-        <v>186</v>
+      <c r="AH91">
+        <v>0</v>
+      </c>
+      <c r="AI91">
+        <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:34">
+    <row r="92" spans="1:35">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C92">
         <v>688603</v>
       </c>
       <c r="D92" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E92">
         <v>-3.94</v>
@@ -8544,7 +10164,7 @@
         <v>23118.17</v>
       </c>
       <c r="J92" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K92">
         <v>6</v>
@@ -8585,8 +10205,23 @@
       <c r="W92">
         <v>-1.02</v>
       </c>
+      <c r="X92">
+        <v>-7.07</v>
+      </c>
+      <c r="Y92">
+        <v>99.88</v>
+      </c>
+      <c r="Z92">
+        <v>10.49</v>
+      </c>
       <c r="AC92" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="AD92">
+        <v>0</v>
+      </c>
+      <c r="AE92">
+        <v>1</v>
       </c>
       <c r="AF92">
         <v>0</v>
@@ -8594,22 +10229,25 @@
       <c r="AG92">
         <v>3.827868223190308</v>
       </c>
-      <c r="AH92" t="s">
-        <v>186</v>
+      <c r="AH92">
+        <v>0</v>
+      </c>
+      <c r="AI92">
+        <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:34">
+    <row r="93" spans="1:35">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C93">
         <v>688648</v>
       </c>
       <c r="D93" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E93">
         <v>-5.21</v>
@@ -8627,7 +10265,7 @@
         <v>17041.22</v>
       </c>
       <c r="J93" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K93">
         <v>1</v>
@@ -8668,8 +10306,23 @@
       <c r="W93">
         <v>-0.32</v>
       </c>
+      <c r="X93">
+        <v>-9.49</v>
+      </c>
+      <c r="Y93">
+        <v>72.19</v>
+      </c>
+      <c r="Z93">
+        <v>-1.1</v>
+      </c>
       <c r="AC93" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="AD93">
+        <v>0</v>
+      </c>
+      <c r="AE93">
+        <v>0</v>
       </c>
       <c r="AF93">
         <v>0</v>
@@ -8677,22 +10330,25 @@
       <c r="AG93">
         <v>-8.678117752075195</v>
       </c>
-      <c r="AH93" t="s">
-        <v>186</v>
+      <c r="AH93">
+        <v>0</v>
+      </c>
+      <c r="AI93">
+        <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:34">
+    <row r="94" spans="1:35">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C94">
         <v>688716</v>
       </c>
       <c r="D94" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E94">
         <v>3.66</v>
@@ -8710,7 +10366,7 @@
         <v>43708.15</v>
       </c>
       <c r="J94" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K94">
         <v>5</v>
@@ -8751,8 +10407,23 @@
       <c r="W94">
         <v>0.51</v>
       </c>
+      <c r="X94">
+        <v>-8.23</v>
+      </c>
+      <c r="Y94">
+        <v>55.73</v>
+      </c>
+      <c r="Z94">
+        <v>-0.11</v>
+      </c>
       <c r="AC94" t="s">
-        <v>185</v>
+        <v>186</v>
+      </c>
+      <c r="AD94">
+        <v>0</v>
+      </c>
+      <c r="AE94">
+        <v>0</v>
       </c>
       <c r="AF94">
         <v>0</v>
@@ -8760,22 +10431,25 @@
       <c r="AG94">
         <v>-2.276662111282349</v>
       </c>
-      <c r="AH94" t="s">
-        <v>186</v>
+      <c r="AH94">
+        <v>0</v>
+      </c>
+      <c r="AI94">
+        <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:34">
+    <row r="95" spans="1:35">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C95">
         <v>688733</v>
       </c>
       <c r="D95" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E95">
         <v>-5.31</v>
@@ -8793,7 +10467,7 @@
         <v>24093.59</v>
       </c>
       <c r="J95" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K95">
         <v>5</v>
@@ -8834,8 +10508,23 @@
       <c r="W95">
         <v>-0.8100000000000001</v>
       </c>
+      <c r="X95">
+        <v>-4.08</v>
+      </c>
+      <c r="Y95">
+        <v>27.58</v>
+      </c>
+      <c r="Z95">
+        <v>-0.79</v>
+      </c>
       <c r="AC95" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="AD95">
+        <v>0</v>
+      </c>
+      <c r="AE95">
+        <v>0</v>
       </c>
       <c r="AF95">
         <v>0</v>
@@ -8843,22 +10532,25 @@
       <c r="AG95">
         <v>5.888041019439697</v>
       </c>
-      <c r="AH95" t="s">
-        <v>186</v>
+      <c r="AH95">
+        <v>0</v>
+      </c>
+      <c r="AI95">
+        <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:34">
+    <row r="96" spans="1:35">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C96">
         <v>688767</v>
       </c>
       <c r="D96" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E96">
         <v>-0.42</v>
@@ -8876,7 +10568,7 @@
         <v>11676.14</v>
       </c>
       <c r="J96" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K96">
         <v>4</v>
@@ -8917,8 +10609,23 @@
       <c r="W96">
         <v>-0.04</v>
       </c>
+      <c r="X96">
+        <v>-4.29</v>
+      </c>
+      <c r="Y96">
+        <v>45</v>
+      </c>
+      <c r="Z96">
+        <v>0.42</v>
+      </c>
       <c r="AC96" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="AD96">
+        <v>0</v>
+      </c>
+      <c r="AE96">
+        <v>0</v>
       </c>
       <c r="AF96">
         <v>0</v>
@@ -8926,8 +10633,11 @@
       <c r="AG96">
         <v>2.447859287261963</v>
       </c>
-      <c r="AH96" t="s">
-        <v>186</v>
+      <c r="AH96">
+        <v>0</v>
+      </c>
+      <c r="AI96">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
